--- a/offloader/Episodes/ep08_-_GCD/math/cf.xlsx
+++ b/offloader/Episodes/ep08_-_GCD/math/cf.xlsx
@@ -64,6 +64,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -152,7 +153,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
